--- a/Делаем export/Кому какие поля.xlsx
+++ b/Делаем export/Кому какие поля.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoMasla\Делаем export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoMasla\Automasla\Делаем export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1409,14 +1409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" customWidth="1"/>
     <col min="19" max="19" width="34" customWidth="1"/>
     <col min="21" max="21" width="20.42578125" customWidth="1"/>
     <col min="25" max="25" width="25.140625" customWidth="1"/>
